--- a/Prediction based on convolutional neural network/code/NewModels1/Test_batch.xlsx
+++ b/Prediction based on convolutional neural network/code/NewModels1/Test_batch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A377A3F7-7CDF-445B-BFB1-9A00B3F026D4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F3EE832D-A87A-4920-A139-04E8FC6AE14F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1600,7 +1600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1613,7 +1613,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1911,20 +1910,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G401"/>
+  <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1934,14 +1933,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
       <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1951,14 +1950,14 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
       <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1968,14 +1967,14 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
       <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1985,14 +1984,14 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
       <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2002,14 +2001,14 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
       <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2019,14 +2018,14 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
       <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2036,14 +2035,14 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
       <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2053,14 +2052,14 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2070,14 +2069,14 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
       <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2087,14 +2086,14 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
       <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2104,14 +2103,14 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
       <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2121,14 +2120,14 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
       <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2138,14 +2137,14 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
       <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2155,14 +2154,14 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
       <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2172,14 +2171,14 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
       <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2189,14 +2188,14 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
       <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2206,14 +2205,14 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
       <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2223,14 +2222,14 @@
       <c r="C18" t="s">
         <v>16</v>
       </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
       <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2240,14 +2239,14 @@
       <c r="C19" t="s">
         <v>17</v>
       </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
       <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2257,14 +2256,14 @@
       <c r="C20" t="s">
         <v>18</v>
       </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
       <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2274,14 +2273,14 @@
       <c r="C21" t="s">
         <v>19</v>
       </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
       <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2291,14 +2290,14 @@
       <c r="C22" t="s">
         <v>20</v>
       </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
       <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2308,14 +2307,14 @@
       <c r="C23" t="s">
         <v>21</v>
       </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
       <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2325,14 +2324,14 @@
       <c r="C24" t="s">
         <v>22</v>
       </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
       <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2342,14 +2341,14 @@
       <c r="C25" t="s">
         <v>23</v>
       </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
       <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2357,16 +2356,16 @@
         <v>0.41071428599999998</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2374,16 +2373,16 @@
         <v>0.60714285700000004</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2391,16 +2390,16 @@
         <v>0.366071429</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2408,16 +2407,16 @@
         <v>0.633928571</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2425,16 +2424,16 @@
         <v>0.40178571400000002</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2442,16 +2441,16 @@
         <v>0.5</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2461,14 +2460,14 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
       <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2478,14 +2477,14 @@
       <c r="C33" t="s">
         <v>1</v>
       </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
       <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2495,14 +2494,14 @@
       <c r="C34" t="s">
         <v>28</v>
       </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
       <c r="E34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2512,14 +2511,14 @@
       <c r="C35" t="s">
         <v>29</v>
       </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
       <c r="E35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2529,14 +2528,14 @@
       <c r="C36" t="s">
         <v>30</v>
       </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
       <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
@@ -2546,14 +2545,14 @@
       <c r="C37" t="s">
         <v>32</v>
       </c>
+      <c r="D37" t="s">
+        <v>119</v>
+      </c>
       <c r="E37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
@@ -2563,14 +2562,14 @@
       <c r="C38" t="s">
         <v>31</v>
       </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
       <c r="E38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
@@ -2580,14 +2579,14 @@
       <c r="C39" t="s">
         <v>14</v>
       </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
       <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -2595,16 +2594,16 @@
         <v>0.35714285699999998</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2612,16 +2611,16 @@
         <v>0.48214285699999998</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2629,16 +2628,16 @@
         <v>0.491071429</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2646,16 +2645,16 @@
         <v>0.428571429</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -2665,14 +2664,14 @@
       <c r="C44" t="s">
         <v>23</v>
       </c>
+      <c r="D44" t="s">
+        <v>126</v>
+      </c>
       <c r="E44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2682,14 +2681,14 @@
       <c r="C45" t="s">
         <v>34</v>
       </c>
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
       <c r="E45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -2697,16 +2696,16 @@
         <v>0.58035714299999996</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>128</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2714,16 +2713,16 @@
         <v>0.35714285699999998</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -2733,14 +2732,14 @@
       <c r="C48" t="s">
         <v>25</v>
       </c>
+      <c r="D48" t="s">
+        <v>130</v>
+      </c>
       <c r="E48" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -2750,14 +2749,14 @@
       <c r="C49" t="s">
         <v>36</v>
       </c>
+      <c r="D49" t="s">
+        <v>131</v>
+      </c>
       <c r="E49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2767,14 +2766,14 @@
       <c r="C50" t="s">
         <v>13</v>
       </c>
+      <c r="D50" t="s">
+        <v>132</v>
+      </c>
       <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2784,14 +2783,14 @@
       <c r="C51" t="s">
         <v>4</v>
       </c>
+      <c r="D51" t="s">
+        <v>133</v>
+      </c>
       <c r="E51" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2801,14 +2800,14 @@
       <c r="C52" t="s">
         <v>37</v>
       </c>
+      <c r="D52" t="s">
+        <v>134</v>
+      </c>
       <c r="E52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -2818,14 +2817,14 @@
       <c r="C53" t="s">
         <v>22</v>
       </c>
+      <c r="D53" t="s">
+        <v>135</v>
+      </c>
       <c r="E53" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2833,16 +2832,16 @@
         <v>0.508928571</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -2850,16 +2849,16 @@
         <v>0.47321428599999998</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2867,16 +2866,16 @@
         <v>0.34821428599999998</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -2884,16 +2883,16 @@
         <v>0.70535714299999996</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>39</v>
+      </c>
+      <c r="D57" t="s">
+        <v>139</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2903,14 +2902,14 @@
       <c r="C58" t="s">
         <v>5</v>
       </c>
+      <c r="D58" t="s">
+        <v>140</v>
+      </c>
       <c r="E58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -2920,14 +2919,14 @@
       <c r="C59" t="s">
         <v>31</v>
       </c>
+      <c r="D59" t="s">
+        <v>141</v>
+      </c>
       <c r="E59" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -2935,16 +2934,16 @@
         <v>0.25</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>142</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
-      </c>
-      <c r="F60" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -2952,16 +2951,16 @@
         <v>0.52678571399999996</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D61" t="s">
+        <v>143</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
-      </c>
-      <c r="F61" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2971,14 +2970,14 @@
       <c r="C62" t="s">
         <v>7</v>
       </c>
+      <c r="D62" t="s">
+        <v>144</v>
+      </c>
       <c r="E62" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -2988,14 +2987,14 @@
       <c r="C63" t="s">
         <v>41</v>
       </c>
+      <c r="D63" t="s">
+        <v>145</v>
+      </c>
       <c r="E63" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -3003,52 +3002,50 @@
         <v>0.51785714299999996</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>0.83035714299999996</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="D65" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>0.52678571399999996</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="D66" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3056,16 +3053,16 @@
         <v>0.553571429</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>43</v>
+      </c>
+      <c r="D67" t="s">
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
-      </c>
-      <c r="F67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -3073,142 +3070,135 @@
         <v>0.4375</v>
       </c>
       <c r="C68" t="s">
-        <v>43</v>
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="8">
         <v>0.51785714299999996</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10" t="s">
+      <c r="C69" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="8">
         <v>0.33035714300000002</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10" t="s">
+      <c r="C70" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="10">
         <v>0.48214285699999998</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="D71" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>45</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="10">
         <v>0.678571429</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12" t="s">
+      <c r="C72" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="D72" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="10">
         <v>0.41964285699999998</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12" t="s">
+      <c r="C73" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="D73" s="11" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74" s="10">
         <v>2.6785713999999999E-2</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="D74" s="11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="10">
         <v>0.40178571400000002</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12" t="s">
+      <c r="C75" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="D75" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -3216,16 +3206,16 @@
         <v>0.28571428599999998</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="D76" t="s">
+        <v>158</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
-      </c>
-      <c r="F76" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -3233,16 +3223,16 @@
         <v>0.64285714299999996</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -3252,14 +3242,14 @@
       <c r="C78" t="s">
         <v>47</v>
       </c>
+      <c r="D78" t="s">
+        <v>160</v>
+      </c>
       <c r="E78" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -3269,14 +3259,14 @@
       <c r="C79" t="s">
         <v>8</v>
       </c>
+      <c r="D79" t="s">
+        <v>161</v>
+      </c>
       <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -3286,14 +3276,14 @@
       <c r="C80" t="s">
         <v>48</v>
       </c>
+      <c r="D80" t="s">
+        <v>162</v>
+      </c>
       <c r="E80" t="s">
-        <v>48</v>
-      </c>
-      <c r="F80" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -3303,14 +3293,14 @@
       <c r="C81" t="s">
         <v>2</v>
       </c>
+      <c r="D81" t="s">
+        <v>163</v>
+      </c>
       <c r="E81" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -3318,251 +3308,237 @@
         <v>0.51785714299999996</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>164</v>
       </c>
       <c r="E82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="5">
         <v>0.875</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="6"/>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" t="s">
+        <v>165</v>
+      </c>
       <c r="E83" t="s">
-        <v>49</v>
-      </c>
-      <c r="F83" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B84" s="5">
         <v>0.64285714299999996</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" t="s">
+      <c r="C84" t="s">
         <v>14</v>
       </c>
-      <c r="F84" t="s">
+      <c r="D84" t="s">
         <v>166</v>
       </c>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E84" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B85" s="5">
         <v>0.45535714300000002</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="6"/>
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" t="s">
+        <v>167</v>
+      </c>
       <c r="E85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F85" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B86" s="5">
         <v>0.78571428600000004</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D86" s="6"/>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" t="s">
+        <v>168</v>
+      </c>
       <c r="E86" t="s">
-        <v>31</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>50</v>
       </c>
       <c r="B87" s="5">
         <v>0.446428571</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D87" s="6"/>
+      <c r="C87" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" t="s">
+        <v>169</v>
+      </c>
       <c r="E87" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>34</v>
       </c>
       <c r="B88" s="5">
         <v>0.383928571</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" t="s">
         <v>50</v>
       </c>
-      <c r="D88" s="6"/>
+      <c r="D88" t="s">
+        <v>170</v>
+      </c>
       <c r="E88" t="s">
-        <v>50</v>
-      </c>
-      <c r="F88" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>37</v>
       </c>
       <c r="B89" s="5">
         <v>0.53571428600000004</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="6"/>
+      <c r="D89" t="s">
+        <v>171</v>
+      </c>
       <c r="E89" t="s">
-        <v>41</v>
-      </c>
-      <c r="F89" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>41</v>
       </c>
       <c r="B90" s="5">
         <v>0.41964285699999998</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="6"/>
+      <c r="C90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" t="s">
+        <v>172</v>
+      </c>
       <c r="E90" t="s">
-        <v>37</v>
-      </c>
-      <c r="F90" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
       <c r="B91" s="5">
         <v>0.5625</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" s="6"/>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>173</v>
+      </c>
       <c r="E91" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>31</v>
       </c>
       <c r="B92" s="5">
         <v>0.45535714300000002</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="6"/>
+      <c r="C92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" t="s">
+        <v>174</v>
+      </c>
       <c r="E92" t="s">
-        <v>31</v>
-      </c>
-      <c r="F92" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
       <c r="B93" s="5">
         <v>0.65178571399999996</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D93" s="6"/>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>175</v>
+      </c>
       <c r="E93" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="5">
         <v>0.54464285700000004</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D94" s="6"/>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>176</v>
+      </c>
       <c r="E94" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>43</v>
       </c>
       <c r="B95" s="5">
         <v>0.4375</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="6"/>
+      <c r="C95" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" t="s">
+        <v>177</v>
+      </c>
       <c r="E95" t="s">
-        <v>43</v>
-      </c>
-      <c r="F95" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3572,14 +3548,14 @@
       <c r="C96" t="s">
         <v>9</v>
       </c>
+      <c r="D96" t="s">
+        <v>178</v>
+      </c>
       <c r="E96" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -3589,14 +3565,14 @@
       <c r="C97" t="s">
         <v>52</v>
       </c>
+      <c r="D97" t="s">
+        <v>179</v>
+      </c>
       <c r="E97" t="s">
-        <v>52</v>
-      </c>
-      <c r="F97" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -3606,14 +3582,14 @@
       <c r="C98" t="s">
         <v>51</v>
       </c>
+      <c r="D98" t="s">
+        <v>180</v>
+      </c>
       <c r="E98" t="s">
-        <v>51</v>
-      </c>
-      <c r="F98" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -3623,14 +3599,14 @@
       <c r="C99" t="s">
         <v>13</v>
       </c>
+      <c r="D99" t="s">
+        <v>181</v>
+      </c>
       <c r="E99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -3638,16 +3614,16 @@
         <v>0.741071429</v>
       </c>
       <c r="C100" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="D100" t="s">
+        <v>182</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
-      </c>
-      <c r="F100" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>55</v>
       </c>
@@ -3655,16 +3631,16 @@
         <v>0.72321428600000004</v>
       </c>
       <c r="C101" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="D101" t="s">
+        <v>183</v>
       </c>
       <c r="E101" t="s">
-        <v>59</v>
-      </c>
-      <c r="F101" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3672,16 +3648,16 @@
         <v>0.66071428600000004</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>184</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -3689,16 +3665,16 @@
         <v>0.366071429</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
+        <v>185</v>
       </c>
       <c r="E103" t="s">
-        <v>20</v>
-      </c>
-      <c r="F103" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>56</v>
       </c>
@@ -3706,16 +3682,16 @@
         <v>0.678571429</v>
       </c>
       <c r="C104" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="D104" t="s">
+        <v>186</v>
       </c>
       <c r="E104" t="s">
-        <v>45</v>
-      </c>
-      <c r="F104" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>45</v>
       </c>
@@ -3723,16 +3699,16 @@
         <v>0.303571429</v>
       </c>
       <c r="C105" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="D105" t="s">
+        <v>187</v>
       </c>
       <c r="E105" t="s">
-        <v>56</v>
-      </c>
-      <c r="F105" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -3742,14 +3718,14 @@
       <c r="C106" t="s">
         <v>5</v>
       </c>
+      <c r="D106" t="s">
+        <v>188</v>
+      </c>
       <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -3759,14 +3735,14 @@
       <c r="C107" t="s">
         <v>21</v>
       </c>
+      <c r="D107" t="s">
+        <v>189</v>
+      </c>
       <c r="E107" t="s">
-        <v>21</v>
-      </c>
-      <c r="F107" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -3776,14 +3752,14 @@
       <c r="C108" t="s">
         <v>4</v>
       </c>
+      <c r="D108" t="s">
+        <v>190</v>
+      </c>
       <c r="E108" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -3793,14 +3769,14 @@
       <c r="C109" t="s">
         <v>17</v>
       </c>
+      <c r="D109" t="s">
+        <v>191</v>
+      </c>
       <c r="E109" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -3810,14 +3786,14 @@
       <c r="C110" t="s">
         <v>14</v>
       </c>
+      <c r="D110" t="s">
+        <v>192</v>
+      </c>
       <c r="E110" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -3827,14 +3803,14 @@
       <c r="C111" t="s">
         <v>3</v>
       </c>
+      <c r="D111" t="s">
+        <v>193</v>
+      </c>
       <c r="E111" t="s">
-        <v>3</v>
-      </c>
-      <c r="F111" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -3844,14 +3820,14 @@
       <c r="C112" t="s">
         <v>14</v>
       </c>
+      <c r="D112" t="s">
+        <v>194</v>
+      </c>
       <c r="E112" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -3861,14 +3837,14 @@
       <c r="C113" t="s">
         <v>33</v>
       </c>
+      <c r="D113" t="s">
+        <v>195</v>
+      </c>
       <c r="E113" t="s">
-        <v>33</v>
-      </c>
-      <c r="F113" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>57</v>
       </c>
@@ -3878,14 +3854,14 @@
       <c r="C114" t="s">
         <v>48</v>
       </c>
+      <c r="D114" t="s">
+        <v>196</v>
+      </c>
       <c r="E114" t="s">
-        <v>48</v>
-      </c>
-      <c r="F114" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>48</v>
       </c>
@@ -3895,14 +3871,14 @@
       <c r="C115" t="s">
         <v>57</v>
       </c>
+      <c r="D115" t="s">
+        <v>197</v>
+      </c>
       <c r="E115" t="s">
-        <v>57</v>
-      </c>
-      <c r="F115" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>41</v>
       </c>
@@ -3912,14 +3888,14 @@
       <c r="C116" t="s">
         <v>34</v>
       </c>
+      <c r="D116" t="s">
+        <v>198</v>
+      </c>
       <c r="E116" t="s">
-        <v>34</v>
-      </c>
-      <c r="F116" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>34</v>
       </c>
@@ -3929,14 +3905,14 @@
       <c r="C117" t="s">
         <v>41</v>
       </c>
+      <c r="D117" t="s">
+        <v>199</v>
+      </c>
       <c r="E117" t="s">
-        <v>41</v>
-      </c>
-      <c r="F117" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -3946,14 +3922,14 @@
       <c r="C118" t="s">
         <v>5</v>
       </c>
+      <c r="D118" t="s">
+        <v>200</v>
+      </c>
       <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -3963,14 +3939,14 @@
       <c r="C119" t="s">
         <v>9</v>
       </c>
+      <c r="D119" t="s">
+        <v>201</v>
+      </c>
       <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -3980,14 +3956,14 @@
       <c r="C120" t="s">
         <v>13</v>
       </c>
+      <c r="D120" t="s">
+        <v>202</v>
+      </c>
       <c r="E120" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -3997,14 +3973,14 @@
       <c r="C121" t="s">
         <v>17</v>
       </c>
+      <c r="D121" t="s">
+        <v>203</v>
+      </c>
       <c r="E121" t="s">
-        <v>17</v>
-      </c>
-      <c r="F121" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>58</v>
       </c>
@@ -4014,14 +3990,14 @@
       <c r="C122" t="s">
         <v>1</v>
       </c>
+      <c r="D122" t="s">
+        <v>204</v>
+      </c>
       <c r="E122" t="s">
-        <v>1</v>
-      </c>
-      <c r="F122" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -4031,14 +4007,14 @@
       <c r="C123" t="s">
         <v>58</v>
       </c>
+      <c r="D123" t="s">
+        <v>205</v>
+      </c>
       <c r="E123" t="s">
-        <v>58</v>
-      </c>
-      <c r="F123" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -4048,14 +4024,14 @@
       <c r="C124" t="s">
         <v>43</v>
       </c>
+      <c r="D124" t="s">
+        <v>206</v>
+      </c>
       <c r="E124" t="s">
-        <v>43</v>
-      </c>
-      <c r="F124" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -4065,14 +4041,14 @@
       <c r="C125" t="s">
         <v>14</v>
       </c>
+      <c r="D125" t="s">
+        <v>207</v>
+      </c>
       <c r="E125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -4082,14 +4058,14 @@
       <c r="C126" t="s">
         <v>45</v>
       </c>
+      <c r="D126" t="s">
+        <v>208</v>
+      </c>
       <c r="E126" t="s">
-        <v>45</v>
-      </c>
-      <c r="F126" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -4099,14 +4075,14 @@
       <c r="C127" t="s">
         <v>12</v>
       </c>
+      <c r="D127" t="s">
+        <v>209</v>
+      </c>
       <c r="E127" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -4116,14 +4092,14 @@
       <c r="C128" t="s">
         <v>25</v>
       </c>
+      <c r="D128" t="s">
+        <v>210</v>
+      </c>
       <c r="E128" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -4133,14 +4109,14 @@
       <c r="C129" t="s">
         <v>28</v>
       </c>
+      <c r="D129" t="s">
+        <v>211</v>
+      </c>
       <c r="E129" t="s">
-        <v>28</v>
-      </c>
-      <c r="F129" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -4150,14 +4126,14 @@
       <c r="C130" t="s">
         <v>59</v>
       </c>
+      <c r="D130" t="s">
+        <v>212</v>
+      </c>
       <c r="E130" t="s">
-        <v>59</v>
-      </c>
-      <c r="F130" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -4167,14 +4143,14 @@
       <c r="C131" t="s">
         <v>5</v>
       </c>
+      <c r="D131" t="s">
+        <v>213</v>
+      </c>
       <c r="E131" t="s">
-        <v>5</v>
-      </c>
-      <c r="F131" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>35</v>
       </c>
@@ -4184,14 +4160,14 @@
       <c r="C132" t="s">
         <v>35</v>
       </c>
+      <c r="D132" t="s">
+        <v>214</v>
+      </c>
       <c r="E132" t="s">
-        <v>35</v>
-      </c>
-      <c r="F132" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -4201,14 +4177,14 @@
       <c r="C133" t="s">
         <v>34</v>
       </c>
+      <c r="D133" t="s">
+        <v>215</v>
+      </c>
       <c r="E133" t="s">
-        <v>34</v>
-      </c>
-      <c r="F133" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -4218,14 +4194,14 @@
       <c r="C134" t="s">
         <v>20</v>
       </c>
+      <c r="D134" t="s">
+        <v>216</v>
+      </c>
       <c r="E134" t="s">
-        <v>20</v>
-      </c>
-      <c r="F134" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>34</v>
       </c>
@@ -4235,14 +4211,14 @@
       <c r="C135" t="s">
         <v>34</v>
       </c>
+      <c r="D135" t="s">
+        <v>217</v>
+      </c>
       <c r="E135" t="s">
-        <v>34</v>
-      </c>
-      <c r="F135" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -4252,14 +4228,14 @@
       <c r="C136" t="s">
         <v>11</v>
       </c>
+      <c r="D136" t="s">
+        <v>218</v>
+      </c>
       <c r="E136" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -4269,14 +4245,14 @@
       <c r="C137" t="s">
         <v>60</v>
       </c>
+      <c r="D137" t="s">
+        <v>219</v>
+      </c>
       <c r="E137" t="s">
-        <v>60</v>
-      </c>
-      <c r="F137" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -4286,14 +4262,14 @@
       <c r="C138" t="s">
         <v>7</v>
       </c>
+      <c r="D138" t="s">
+        <v>220</v>
+      </c>
       <c r="E138" t="s">
-        <v>7</v>
-      </c>
-      <c r="F138" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>28</v>
       </c>
@@ -4303,14 +4279,14 @@
       <c r="C139" t="s">
         <v>28</v>
       </c>
+      <c r="D139" t="s">
+        <v>221</v>
+      </c>
       <c r="E139" t="s">
-        <v>28</v>
-      </c>
-      <c r="F139" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>52</v>
       </c>
@@ -4320,14 +4296,14 @@
       <c r="C140" t="s">
         <v>52</v>
       </c>
+      <c r="D140" t="s">
+        <v>222</v>
+      </c>
       <c r="E140" t="s">
-        <v>52</v>
-      </c>
-      <c r="F140" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -4337,14 +4313,14 @@
       <c r="C141" t="s">
         <v>13</v>
       </c>
+      <c r="D141" t="s">
+        <v>223</v>
+      </c>
       <c r="E141" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>50</v>
       </c>
@@ -4354,14 +4330,14 @@
       <c r="C142" t="s">
         <v>9</v>
       </c>
+      <c r="D142" t="s">
+        <v>224</v>
+      </c>
       <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4371,14 +4347,14 @@
       <c r="C143" t="s">
         <v>50</v>
       </c>
+      <c r="D143" t="s">
+        <v>225</v>
+      </c>
       <c r="E143" t="s">
-        <v>50</v>
-      </c>
-      <c r="F143" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>43</v>
       </c>
@@ -4388,14 +4364,14 @@
       <c r="C144" t="s">
         <v>43</v>
       </c>
+      <c r="D144" t="s">
+        <v>226</v>
+      </c>
       <c r="E144" t="s">
-        <v>43</v>
-      </c>
-      <c r="F144" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -4405,14 +4381,14 @@
       <c r="C145" t="s">
         <v>35</v>
       </c>
+      <c r="D145" t="s">
+        <v>227</v>
+      </c>
       <c r="E145" t="s">
-        <v>35</v>
-      </c>
-      <c r="F145" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>51</v>
       </c>
@@ -4422,14 +4398,14 @@
       <c r="C146" t="s">
         <v>61</v>
       </c>
+      <c r="D146" t="s">
+        <v>228</v>
+      </c>
       <c r="E146" t="s">
-        <v>61</v>
-      </c>
-      <c r="F146" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>61</v>
       </c>
@@ -4439,14 +4415,14 @@
       <c r="C147" t="s">
         <v>51</v>
       </c>
+      <c r="D147" t="s">
+        <v>229</v>
+      </c>
       <c r="E147" t="s">
-        <v>51</v>
-      </c>
-      <c r="F147" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>45</v>
       </c>
@@ -4456,14 +4432,14 @@
       <c r="C148" t="s">
         <v>17</v>
       </c>
+      <c r="D148" t="s">
+        <v>230</v>
+      </c>
       <c r="E148" t="s">
-        <v>17</v>
-      </c>
-      <c r="F148" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -4473,14 +4449,14 @@
       <c r="C149" t="s">
         <v>45</v>
       </c>
+      <c r="D149" t="s">
+        <v>231</v>
+      </c>
       <c r="E149" t="s">
-        <v>45</v>
-      </c>
-      <c r="F149" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>16</v>
       </c>
@@ -4490,14 +4466,14 @@
       <c r="C150" t="s">
         <v>16</v>
       </c>
+      <c r="D150" t="s">
+        <v>232</v>
+      </c>
       <c r="E150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F150" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4507,14 +4483,14 @@
       <c r="C151" t="s">
         <v>7</v>
       </c>
+      <c r="D151" t="s">
+        <v>233</v>
+      </c>
       <c r="E151" t="s">
-        <v>7</v>
-      </c>
-      <c r="F151" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>58</v>
       </c>
@@ -4524,14 +4500,14 @@
       <c r="C152" t="s">
         <v>58</v>
       </c>
+      <c r="D152" t="s">
+        <v>234</v>
+      </c>
       <c r="E152" t="s">
-        <v>58</v>
-      </c>
-      <c r="F152" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>47</v>
       </c>
@@ -4541,14 +4517,14 @@
       <c r="C153" t="s">
         <v>47</v>
       </c>
+      <c r="D153" t="s">
+        <v>235</v>
+      </c>
       <c r="E153" t="s">
-        <v>47</v>
-      </c>
-      <c r="F153" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -4558,14 +4534,14 @@
       <c r="C154" t="s">
         <v>13</v>
       </c>
+      <c r="D154" t="s">
+        <v>236</v>
+      </c>
       <c r="E154" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -4575,14 +4551,14 @@
       <c r="C155" t="s">
         <v>31</v>
       </c>
+      <c r="D155" t="s">
+        <v>237</v>
+      </c>
       <c r="E155" t="s">
-        <v>31</v>
-      </c>
-      <c r="F155" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -4590,16 +4566,16 @@
         <v>0.446428571</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>238</v>
       </c>
       <c r="E156" t="s">
-        <v>1</v>
-      </c>
-      <c r="F156" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -4607,16 +4583,16 @@
         <v>0.51785714299999996</v>
       </c>
       <c r="C157" t="s">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="D157" t="s">
+        <v>239</v>
       </c>
       <c r="E157" t="s">
-        <v>34</v>
-      </c>
-      <c r="F157" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -4624,16 +4600,16 @@
         <v>0.553571429</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="D158" t="s">
+        <v>240</v>
       </c>
       <c r="E158" t="s">
-        <v>21</v>
-      </c>
-      <c r="F158" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -4641,16 +4617,16 @@
         <v>0.6875</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="D159" t="s">
+        <v>241</v>
       </c>
       <c r="E159" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -4660,14 +4636,14 @@
       <c r="C160" t="s">
         <v>20</v>
       </c>
+      <c r="D160" t="s">
+        <v>242</v>
+      </c>
       <c r="E160" t="s">
-        <v>20</v>
-      </c>
-      <c r="F160" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -4677,14 +4653,14 @@
       <c r="C161" t="s">
         <v>7</v>
       </c>
+      <c r="D161" t="s">
+        <v>243</v>
+      </c>
       <c r="E161" t="s">
-        <v>7</v>
-      </c>
-      <c r="F161" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -4692,16 +4668,16 @@
         <v>0.48214285699999998</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>244</v>
       </c>
       <c r="E162" t="s">
-        <v>7</v>
-      </c>
-      <c r="F162" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -4709,16 +4685,16 @@
         <v>0.553571429</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>245</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
-      </c>
-      <c r="F163" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>22</v>
       </c>
@@ -4728,14 +4704,14 @@
       <c r="C164" t="s">
         <v>51</v>
       </c>
+      <c r="D164" t="s">
+        <v>246</v>
+      </c>
       <c r="E164" t="s">
-        <v>51</v>
-      </c>
-      <c r="F164" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>51</v>
       </c>
@@ -4745,14 +4721,14 @@
       <c r="C165" t="s">
         <v>22</v>
       </c>
+      <c r="D165" t="s">
+        <v>247</v>
+      </c>
       <c r="E165" t="s">
-        <v>22</v>
-      </c>
-      <c r="F165" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>34</v>
       </c>
@@ -4760,16 +4736,16 @@
         <v>0.5625</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="D166" t="s">
+        <v>248</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
-      </c>
-      <c r="F166" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -4777,16 +4753,16 @@
         <v>0.446428571</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="D167" t="s">
+        <v>249</v>
       </c>
       <c r="E167" t="s">
-        <v>5</v>
-      </c>
-      <c r="F167" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>51</v>
       </c>
@@ -4796,14 +4772,14 @@
       <c r="C168" t="s">
         <v>59</v>
       </c>
+      <c r="D168" t="s">
+        <v>250</v>
+      </c>
       <c r="E168" t="s">
-        <v>59</v>
-      </c>
-      <c r="F168" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>59</v>
       </c>
@@ -4813,14 +4789,14 @@
       <c r="C169" t="s">
         <v>51</v>
       </c>
+      <c r="D169" t="s">
+        <v>251</v>
+      </c>
       <c r="E169" t="s">
-        <v>51</v>
-      </c>
-      <c r="F169" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>34</v>
       </c>
@@ -4830,14 +4806,14 @@
       <c r="C170" t="s">
         <v>8</v>
       </c>
+      <c r="D170" t="s">
+        <v>252</v>
+      </c>
       <c r="E170" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -4847,14 +4823,14 @@
       <c r="C171" t="s">
         <v>34</v>
       </c>
+      <c r="D171" t="s">
+        <v>253</v>
+      </c>
       <c r="E171" t="s">
-        <v>34</v>
-      </c>
-      <c r="F171" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>51</v>
       </c>
@@ -4864,14 +4840,14 @@
       <c r="C172" t="s">
         <v>62</v>
       </c>
+      <c r="D172" t="s">
+        <v>254</v>
+      </c>
       <c r="E172" t="s">
-        <v>62</v>
-      </c>
-      <c r="F172" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>62</v>
       </c>
@@ -4881,14 +4857,14 @@
       <c r="C173" t="s">
         <v>51</v>
       </c>
+      <c r="D173" t="s">
+        <v>255</v>
+      </c>
       <c r="E173" t="s">
-        <v>51</v>
-      </c>
-      <c r="F173" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -4898,14 +4874,14 @@
       <c r="C174" t="s">
         <v>11</v>
       </c>
+      <c r="D174" t="s">
+        <v>256</v>
+      </c>
       <c r="E174" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -4915,14 +4891,14 @@
       <c r="C175" t="s">
         <v>22</v>
       </c>
+      <c r="D175" t="s">
+        <v>257</v>
+      </c>
       <c r="E175" t="s">
-        <v>22</v>
-      </c>
-      <c r="F175" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>25</v>
       </c>
@@ -4932,14 +4908,14 @@
       <c r="C176" t="s">
         <v>34</v>
       </c>
+      <c r="D176" t="s">
+        <v>258</v>
+      </c>
       <c r="E176" t="s">
-        <v>34</v>
-      </c>
-      <c r="F176" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>34</v>
       </c>
@@ -4949,14 +4925,14 @@
       <c r="C177" t="s">
         <v>25</v>
       </c>
+      <c r="D177" t="s">
+        <v>259</v>
+      </c>
       <c r="E177" t="s">
-        <v>25</v>
-      </c>
-      <c r="F177" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -4966,14 +4942,14 @@
       <c r="C178" t="s">
         <v>63</v>
       </c>
+      <c r="D178" t="s">
+        <v>260</v>
+      </c>
       <c r="E178" t="s">
-        <v>63</v>
-      </c>
-      <c r="F178" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>63</v>
       </c>
@@ -4983,14 +4959,14 @@
       <c r="C179" t="s">
         <v>8</v>
       </c>
+      <c r="D179" t="s">
+        <v>261</v>
+      </c>
       <c r="E179" t="s">
-        <v>8</v>
-      </c>
-      <c r="F179" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -5000,14 +4976,14 @@
       <c r="C180" t="s">
         <v>64</v>
       </c>
+      <c r="D180" t="s">
+        <v>262</v>
+      </c>
       <c r="E180" t="s">
-        <v>64</v>
-      </c>
-      <c r="F180" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>64</v>
       </c>
@@ -5017,14 +4993,14 @@
       <c r="C181" t="s">
         <v>35</v>
       </c>
+      <c r="D181" t="s">
+        <v>263</v>
+      </c>
       <c r="E181" t="s">
-        <v>35</v>
-      </c>
-      <c r="F181" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -5034,14 +5010,14 @@
       <c r="C182" t="s">
         <v>41</v>
       </c>
+      <c r="D182" t="s">
+        <v>264</v>
+      </c>
       <c r="E182" t="s">
-        <v>41</v>
-      </c>
-      <c r="F182" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>41</v>
       </c>
@@ -5051,14 +5027,14 @@
       <c r="C183" t="s">
         <v>13</v>
       </c>
+      <c r="D183" t="s">
+        <v>265</v>
+      </c>
       <c r="E183" t="s">
-        <v>13</v>
-      </c>
-      <c r="F183" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -5068,14 +5044,14 @@
       <c r="C184" t="s">
         <v>5</v>
       </c>
+      <c r="D184" t="s">
+        <v>266</v>
+      </c>
       <c r="E184" t="s">
-        <v>5</v>
-      </c>
-      <c r="F184" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -5085,14 +5061,14 @@
       <c r="C185" t="s">
         <v>11</v>
       </c>
+      <c r="D185" t="s">
+        <v>267</v>
+      </c>
       <c r="E185" t="s">
-        <v>11</v>
-      </c>
-      <c r="F185" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -5102,14 +5078,14 @@
       <c r="C186" t="s">
         <v>9</v>
       </c>
+      <c r="D186" t="s">
+        <v>268</v>
+      </c>
       <c r="E186" t="s">
-        <v>9</v>
-      </c>
-      <c r="F186" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -5119,14 +5095,14 @@
       <c r="C187" t="s">
         <v>5</v>
       </c>
+      <c r="D187" t="s">
+        <v>269</v>
+      </c>
       <c r="E187" t="s">
-        <v>5</v>
-      </c>
-      <c r="F187" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1</v>
       </c>
@@ -5136,14 +5112,14 @@
       <c r="C188" t="s">
         <v>36</v>
       </c>
+      <c r="D188" t="s">
+        <v>270</v>
+      </c>
       <c r="E188" t="s">
-        <v>36</v>
-      </c>
-      <c r="F188" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>36</v>
       </c>
@@ -5153,14 +5129,14 @@
       <c r="C189" t="s">
         <v>1</v>
       </c>
+      <c r="D189" t="s">
+        <v>271</v>
+      </c>
       <c r="E189" t="s">
-        <v>1</v>
-      </c>
-      <c r="F189" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>57</v>
       </c>
@@ -5170,14 +5146,14 @@
       <c r="C190" t="s">
         <v>38</v>
       </c>
+      <c r="D190" t="s">
+        <v>272</v>
+      </c>
       <c r="E190" t="s">
-        <v>38</v>
-      </c>
-      <c r="F190" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>38</v>
       </c>
@@ -5187,14 +5163,14 @@
       <c r="C191" t="s">
         <v>57</v>
       </c>
+      <c r="D191" t="s">
+        <v>273</v>
+      </c>
       <c r="E191" t="s">
-        <v>57</v>
-      </c>
-      <c r="F191" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>28</v>
       </c>
@@ -5204,14 +5180,14 @@
       <c r="C192" t="s">
         <v>21</v>
       </c>
+      <c r="D192" t="s">
+        <v>274</v>
+      </c>
       <c r="E192" t="s">
-        <v>21</v>
-      </c>
-      <c r="F192" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -5221,14 +5197,14 @@
       <c r="C193" t="s">
         <v>28</v>
       </c>
+      <c r="D193" t="s">
+        <v>275</v>
+      </c>
       <c r="E193" t="s">
-        <v>28</v>
-      </c>
-      <c r="F193" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>20</v>
       </c>
@@ -5236,16 +5212,16 @@
         <v>0.633928571</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D194" t="s">
+        <v>276</v>
       </c>
       <c r="E194" t="s">
-        <v>26</v>
-      </c>
-      <c r="F194" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>26</v>
       </c>
@@ -5253,16 +5229,16 @@
         <v>0.366071429</v>
       </c>
       <c r="C195" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="D195" t="s">
+        <v>277</v>
       </c>
       <c r="E195" t="s">
-        <v>20</v>
-      </c>
-      <c r="F195" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -5270,16 +5246,16 @@
         <v>0.428571429</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D196" t="s">
+        <v>278</v>
       </c>
       <c r="E196" t="s">
-        <v>15</v>
-      </c>
-      <c r="F196" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -5287,16 +5263,16 @@
         <v>0.571428571</v>
       </c>
       <c r="C197" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D197" t="s">
+        <v>279</v>
       </c>
       <c r="E197" t="s">
-        <v>9</v>
-      </c>
-      <c r="F197" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -5304,16 +5280,16 @@
         <v>0.40178571400000002</v>
       </c>
       <c r="C198" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="D198" t="s">
+        <v>280</v>
       </c>
       <c r="E198" t="s">
-        <v>27</v>
-      </c>
-      <c r="F198" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -5321,16 +5297,16 @@
         <v>0.553571429</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="D199" t="s">
+        <v>281</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
-      </c>
-      <c r="F199" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>65</v>
       </c>
@@ -5340,14 +5316,14 @@
       <c r="C200" t="s">
         <v>26</v>
       </c>
+      <c r="D200" t="s">
+        <v>282</v>
+      </c>
       <c r="E200" t="s">
-        <v>26</v>
-      </c>
-      <c r="F200" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>66</v>
       </c>
@@ -5357,14 +5333,14 @@
       <c r="C201" t="s">
         <v>1</v>
       </c>
+      <c r="D201" t="s">
+        <v>283</v>
+      </c>
       <c r="E201" t="s">
-        <v>1</v>
-      </c>
-      <c r="F201" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>67</v>
       </c>
@@ -5374,14 +5350,14 @@
       <c r="C202" t="s">
         <v>67</v>
       </c>
+      <c r="D202" t="s">
+        <v>284</v>
+      </c>
       <c r="E202" t="s">
-        <v>67</v>
-      </c>
-      <c r="F202" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -5391,14 +5367,14 @@
       <c r="C203" t="s">
         <v>14</v>
       </c>
+      <c r="D203" t="s">
+        <v>285</v>
+      </c>
       <c r="E203" t="s">
-        <v>14</v>
-      </c>
-      <c r="F203" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5408,14 +5384,14 @@
       <c r="C204" t="s">
         <v>36</v>
       </c>
+      <c r="D204" t="s">
+        <v>286</v>
+      </c>
       <c r="E204" t="s">
-        <v>36</v>
-      </c>
-      <c r="F204" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>36</v>
       </c>
@@ -5425,14 +5401,14 @@
       <c r="C205" t="s">
         <v>5</v>
       </c>
+      <c r="D205" t="s">
+        <v>287</v>
+      </c>
       <c r="E205" t="s">
-        <v>5</v>
-      </c>
-      <c r="F205" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>24</v>
       </c>
@@ -5442,14 +5418,14 @@
       <c r="C206" t="s">
         <v>24</v>
       </c>
+      <c r="D206" t="s">
+        <v>288</v>
+      </c>
       <c r="E206" t="s">
-        <v>24</v>
-      </c>
-      <c r="F206" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>68</v>
       </c>
@@ -5459,14 +5435,14 @@
       <c r="C207" t="s">
         <v>68</v>
       </c>
+      <c r="D207" t="s">
+        <v>289</v>
+      </c>
       <c r="E207" t="s">
-        <v>68</v>
-      </c>
-      <c r="F207" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>26</v>
       </c>
@@ -5476,14 +5452,14 @@
       <c r="C208" t="s">
         <v>3</v>
       </c>
+      <c r="D208" t="s">
+        <v>290</v>
+      </c>
       <c r="E208" t="s">
-        <v>3</v>
-      </c>
-      <c r="F208" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>3</v>
       </c>
@@ -5493,14 +5469,14 @@
       <c r="C209" t="s">
         <v>26</v>
       </c>
+      <c r="D209" t="s">
+        <v>291</v>
+      </c>
       <c r="E209" t="s">
-        <v>26</v>
-      </c>
-      <c r="F209" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>58</v>
       </c>
@@ -5510,14 +5486,14 @@
       <c r="C210" t="s">
         <v>3</v>
       </c>
+      <c r="D210" t="s">
+        <v>292</v>
+      </c>
       <c r="E210" t="s">
-        <v>3</v>
-      </c>
-      <c r="F210" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>3</v>
       </c>
@@ -5527,14 +5503,14 @@
       <c r="C211" t="s">
         <v>58</v>
       </c>
+      <c r="D211" t="s">
+        <v>293</v>
+      </c>
       <c r="E211" t="s">
-        <v>58</v>
-      </c>
-      <c r="F211" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -5544,14 +5520,14 @@
       <c r="C212" t="s">
         <v>7</v>
       </c>
+      <c r="D212" t="s">
+        <v>294</v>
+      </c>
       <c r="E212" t="s">
-        <v>7</v>
-      </c>
-      <c r="F212" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -5561,14 +5537,14 @@
       <c r="C213" t="s">
         <v>23</v>
       </c>
+      <c r="D213" t="s">
+        <v>295</v>
+      </c>
       <c r="E213" t="s">
-        <v>23</v>
-      </c>
-      <c r="F213" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>38</v>
       </c>
@@ -5578,14 +5554,14 @@
       <c r="C214" t="s">
         <v>10</v>
       </c>
+      <c r="D214" t="s">
+        <v>296</v>
+      </c>
       <c r="E214" t="s">
-        <v>10</v>
-      </c>
-      <c r="F214" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -5595,14 +5571,14 @@
       <c r="C215" t="s">
         <v>38</v>
       </c>
+      <c r="D215" t="s">
+        <v>297</v>
+      </c>
       <c r="E215" t="s">
-        <v>38</v>
-      </c>
-      <c r="F215" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>43</v>
       </c>
@@ -5612,14 +5588,14 @@
       <c r="C216" t="s">
         <v>43</v>
       </c>
+      <c r="D216" t="s">
+        <v>298</v>
+      </c>
       <c r="E216" t="s">
-        <v>43</v>
-      </c>
-      <c r="F216" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>69</v>
       </c>
@@ -5629,14 +5605,14 @@
       <c r="C217" t="s">
         <v>69</v>
       </c>
+      <c r="D217" t="s">
+        <v>299</v>
+      </c>
       <c r="E217" t="s">
-        <v>69</v>
-      </c>
-      <c r="F217" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -5644,16 +5620,16 @@
         <v>0.39285714300000002</v>
       </c>
       <c r="C218" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="D218" t="s">
+        <v>300</v>
       </c>
       <c r="E218" t="s">
-        <v>70</v>
-      </c>
-      <c r="F218" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>70</v>
       </c>
@@ -5661,16 +5637,16 @@
         <v>0.258928571</v>
       </c>
       <c r="C219" t="s">
-        <v>70</v>
+        <v>23</v>
+      </c>
+      <c r="D219" t="s">
+        <v>301</v>
       </c>
       <c r="E219" t="s">
-        <v>23</v>
-      </c>
-      <c r="F219" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>60</v>
       </c>
@@ -5680,14 +5656,14 @@
       <c r="C220" t="s">
         <v>50</v>
       </c>
+      <c r="D220" t="s">
+        <v>302</v>
+      </c>
       <c r="E220" t="s">
-        <v>50</v>
-      </c>
-      <c r="F220" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>50</v>
       </c>
@@ -5697,14 +5673,14 @@
       <c r="C221" t="s">
         <v>60</v>
       </c>
+      <c r="D221" t="s">
+        <v>303</v>
+      </c>
       <c r="E221" t="s">
-        <v>60</v>
-      </c>
-      <c r="F221" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>71</v>
       </c>
@@ -5712,16 +5688,16 @@
         <v>0.571428571</v>
       </c>
       <c r="C222" t="s">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
+        <v>304</v>
       </c>
       <c r="E222" t="s">
-        <v>9</v>
-      </c>
-      <c r="F222" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -5729,16 +5705,16 @@
         <v>0.66964285700000004</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="D223" t="s">
+        <v>305</v>
       </c>
       <c r="E223" t="s">
-        <v>71</v>
-      </c>
-      <c r="F223" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>41</v>
       </c>
@@ -5748,14 +5724,14 @@
       <c r="C224" t="s">
         <v>41</v>
       </c>
+      <c r="D224" t="s">
+        <v>306</v>
+      </c>
       <c r="E224" t="s">
-        <v>41</v>
-      </c>
-      <c r="F224" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>51</v>
       </c>
@@ -5765,14 +5741,14 @@
       <c r="C225" t="s">
         <v>51</v>
       </c>
+      <c r="D225" t="s">
+        <v>307</v>
+      </c>
       <c r="E225" t="s">
-        <v>51</v>
-      </c>
-      <c r="F225" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>28</v>
       </c>
@@ -5782,14 +5758,14 @@
       <c r="C226" t="s">
         <v>72</v>
       </c>
+      <c r="D226" t="s">
+        <v>308</v>
+      </c>
       <c r="E226" t="s">
-        <v>72</v>
-      </c>
-      <c r="F226" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>72</v>
       </c>
@@ -5799,14 +5775,14 @@
       <c r="C227" t="s">
         <v>28</v>
       </c>
+      <c r="D227" t="s">
+        <v>309</v>
+      </c>
       <c r="E227" t="s">
-        <v>28</v>
-      </c>
-      <c r="F227" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1</v>
       </c>
@@ -5814,16 +5790,16 @@
         <v>0.46428571400000002</v>
       </c>
       <c r="C228" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>310</v>
       </c>
       <c r="E228" t="s">
-        <v>1</v>
-      </c>
-      <c r="F228" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>51</v>
       </c>
@@ -5831,16 +5807,16 @@
         <v>0.51785714299999996</v>
       </c>
       <c r="C229" t="s">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="D229" t="s">
+        <v>311</v>
       </c>
       <c r="E229" t="s">
-        <v>51</v>
-      </c>
-      <c r="F229" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -5848,16 +5824,16 @@
         <v>0.58928571399999996</v>
       </c>
       <c r="C230" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D230" t="s">
+        <v>312</v>
       </c>
       <c r="E230" t="s">
-        <v>11</v>
-      </c>
-      <c r="F230" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>10</v>
       </c>
@@ -5865,16 +5841,16 @@
         <v>0.66071428600000004</v>
       </c>
       <c r="C231" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D231" t="s">
+        <v>313</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
-      </c>
-      <c r="F231" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>31</v>
       </c>
@@ -5882,16 +5858,16 @@
         <v>0.45535714300000002</v>
       </c>
       <c r="C232" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="D232" t="s">
+        <v>314</v>
       </c>
       <c r="E232" t="s">
-        <v>50</v>
-      </c>
-      <c r="F232" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>50</v>
       </c>
@@ -5899,16 +5875,16 @@
         <v>0.383928571</v>
       </c>
       <c r="C233" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="D233" t="s">
+        <v>315</v>
       </c>
       <c r="E233" t="s">
-        <v>31</v>
-      </c>
-      <c r="F233" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -5918,14 +5894,14 @@
       <c r="C234" t="s">
         <v>18</v>
       </c>
+      <c r="D234" t="s">
+        <v>316</v>
+      </c>
       <c r="E234" t="s">
-        <v>18</v>
-      </c>
-      <c r="F234" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>18</v>
       </c>
@@ -5935,14 +5911,14 @@
       <c r="C235" t="s">
         <v>18</v>
       </c>
+      <c r="D235" t="s">
+        <v>317</v>
+      </c>
       <c r="E235" t="s">
-        <v>18</v>
-      </c>
-      <c r="F235" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>38</v>
       </c>
@@ -5950,16 +5926,16 @@
         <v>0.508928571</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="D236" t="s">
+        <v>318</v>
       </c>
       <c r="E236" t="s">
-        <v>38</v>
-      </c>
-      <c r="F236" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -5967,16 +5943,16 @@
         <v>0.48214285699999998</v>
       </c>
       <c r="C237" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="D237" t="s">
+        <v>319</v>
       </c>
       <c r="E237" t="s">
-        <v>8</v>
-      </c>
-      <c r="F237" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -5984,16 +5960,16 @@
         <v>0.678571429</v>
       </c>
       <c r="C238" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="D238" t="s">
+        <v>320</v>
       </c>
       <c r="E238" t="s">
-        <v>15</v>
-      </c>
-      <c r="F238" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>45</v>
       </c>
@@ -6001,16 +5977,16 @@
         <v>0.428571429</v>
       </c>
       <c r="C239" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="D239" t="s">
+        <v>321</v>
       </c>
       <c r="E239" t="s">
-        <v>45</v>
-      </c>
-      <c r="F239" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>72</v>
       </c>
@@ -6020,14 +5996,14 @@
       <c r="C240" t="s">
         <v>72</v>
       </c>
+      <c r="D240" t="s">
+        <v>322</v>
+      </c>
       <c r="E240" t="s">
-        <v>72</v>
-      </c>
-      <c r="F240" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>50</v>
       </c>
@@ -6037,14 +6013,14 @@
       <c r="C241" t="s">
         <v>50</v>
       </c>
+      <c r="D241" t="s">
+        <v>323</v>
+      </c>
       <c r="E241" t="s">
-        <v>50</v>
-      </c>
-      <c r="F241" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>24</v>
       </c>
@@ -6052,16 +6028,16 @@
         <v>0.41964285699999998</v>
       </c>
       <c r="C242" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="D242" t="s">
+        <v>324</v>
       </c>
       <c r="E242" t="s">
-        <v>24</v>
-      </c>
-      <c r="F242" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>37</v>
       </c>
@@ -6069,16 +6045,16 @@
         <v>0.41071428599999998</v>
       </c>
       <c r="C243" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="D243" t="s">
+        <v>325</v>
       </c>
       <c r="E243" t="s">
-        <v>37</v>
-      </c>
-      <c r="F243" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>43</v>
       </c>
@@ -6086,16 +6062,16 @@
         <v>0.58035714299999996</v>
       </c>
       <c r="C244" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="D244" t="s">
+        <v>326</v>
       </c>
       <c r="E244" t="s">
-        <v>43</v>
-      </c>
-      <c r="F244" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>35</v>
       </c>
@@ -6103,16 +6079,16 @@
         <v>0.4375</v>
       </c>
       <c r="C245" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="D245" t="s">
+        <v>327</v>
       </c>
       <c r="E245" t="s">
-        <v>35</v>
-      </c>
-      <c r="F245" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -6122,14 +6098,14 @@
       <c r="C246" t="s">
         <v>17</v>
       </c>
+      <c r="D246" t="s">
+        <v>328</v>
+      </c>
       <c r="E246" t="s">
-        <v>17</v>
-      </c>
-      <c r="F246" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -6139,14 +6115,14 @@
       <c r="C247" t="s">
         <v>17</v>
       </c>
+      <c r="D247" t="s">
+        <v>329</v>
+      </c>
       <c r="E247" t="s">
-        <v>17</v>
-      </c>
-      <c r="F247" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>14</v>
       </c>
@@ -6156,14 +6132,14 @@
       <c r="C248" t="s">
         <v>26</v>
       </c>
+      <c r="D248" t="s">
+        <v>330</v>
+      </c>
       <c r="E248" t="s">
-        <v>26</v>
-      </c>
-      <c r="F248" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -6173,14 +6149,14 @@
       <c r="C249" t="s">
         <v>14</v>
       </c>
+      <c r="D249" t="s">
+        <v>331</v>
+      </c>
       <c r="E249" t="s">
-        <v>14</v>
-      </c>
-      <c r="F249" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -6188,16 +6164,16 @@
         <v>0.41964285699999998</v>
       </c>
       <c r="C250" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="D250" t="s">
+        <v>332</v>
       </c>
       <c r="E250" t="s">
-        <v>12</v>
-      </c>
-      <c r="F250" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>37</v>
       </c>
@@ -6205,16 +6181,16 @@
         <v>0.616071429</v>
       </c>
       <c r="C251" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="D251" t="s">
+        <v>333</v>
       </c>
       <c r="E251" t="s">
-        <v>37</v>
-      </c>
-      <c r="F251" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>34</v>
       </c>
@@ -6224,14 +6200,14 @@
       <c r="C252" t="s">
         <v>4</v>
       </c>
+      <c r="D252" t="s">
+        <v>334</v>
+      </c>
       <c r="E252" t="s">
-        <v>4</v>
-      </c>
-      <c r="F252" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -6241,14 +6217,14 @@
       <c r="C253" t="s">
         <v>34</v>
       </c>
+      <c r="D253" t="s">
+        <v>335</v>
+      </c>
       <c r="E253" t="s">
-        <v>34</v>
-      </c>
-      <c r="F253" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>38</v>
       </c>
@@ -6258,14 +6234,14 @@
       <c r="C254" t="s">
         <v>38</v>
       </c>
+      <c r="D254" t="s">
+        <v>336</v>
+      </c>
       <c r="E254" t="s">
-        <v>38</v>
-      </c>
-      <c r="F254" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>73</v>
       </c>
@@ -6275,14 +6251,14 @@
       <c r="C255" t="s">
         <v>73</v>
       </c>
+      <c r="D255" t="s">
+        <v>337</v>
+      </c>
       <c r="E255" t="s">
-        <v>73</v>
-      </c>
-      <c r="F255" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>56</v>
       </c>
@@ -6292,14 +6268,14 @@
       <c r="C256" t="s">
         <v>49</v>
       </c>
+      <c r="D256" t="s">
+        <v>338</v>
+      </c>
       <c r="E256" t="s">
-        <v>49</v>
-      </c>
-      <c r="F256" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>49</v>
       </c>
@@ -6309,14 +6285,14 @@
       <c r="C257" t="s">
         <v>56</v>
       </c>
+      <c r="D257" t="s">
+        <v>339</v>
+      </c>
       <c r="E257" t="s">
-        <v>56</v>
-      </c>
-      <c r="F257" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -6326,14 +6302,14 @@
       <c r="C258" t="s">
         <v>13</v>
       </c>
+      <c r="D258" t="s">
+        <v>340</v>
+      </c>
       <c r="E258" t="s">
-        <v>13</v>
-      </c>
-      <c r="F258" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>13</v>
       </c>
@@ -6343,14 +6319,14 @@
       <c r="C259" t="s">
         <v>9</v>
       </c>
+      <c r="D259" t="s">
+        <v>341</v>
+      </c>
       <c r="E259" t="s">
-        <v>9</v>
-      </c>
-      <c r="F259" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>59</v>
       </c>
@@ -6358,16 +6334,16 @@
         <v>0.51785714299999996</v>
       </c>
       <c r="C260" t="s">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="D260" t="s">
+        <v>342</v>
       </c>
       <c r="E260" t="s">
-        <v>59</v>
-      </c>
-      <c r="F260" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -6375,16 +6351,16 @@
         <v>0.72321428600000004</v>
       </c>
       <c r="C261" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="D261" t="s">
+        <v>343</v>
       </c>
       <c r="E261" t="s">
-        <v>1</v>
-      </c>
-      <c r="F261" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>21</v>
       </c>
@@ -6392,16 +6368,16 @@
         <v>0.553571429</v>
       </c>
       <c r="C262" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="D262" t="s">
+        <v>344</v>
       </c>
       <c r="E262" t="s">
-        <v>21</v>
-      </c>
-      <c r="F262" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -6409,16 +6385,16 @@
         <v>0.6875</v>
       </c>
       <c r="C263" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="D263" t="s">
+        <v>345</v>
       </c>
       <c r="E263" t="s">
-        <v>7</v>
-      </c>
-      <c r="F263" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>9</v>
       </c>
@@ -6428,14 +6404,14 @@
       <c r="C264" t="s">
         <v>31</v>
       </c>
+      <c r="D264" t="s">
+        <v>346</v>
+      </c>
       <c r="E264" t="s">
-        <v>31</v>
-      </c>
-      <c r="F264" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>31</v>
       </c>
@@ -6445,14 +6421,14 @@
       <c r="C265" t="s">
         <v>9</v>
       </c>
+      <c r="D265" t="s">
+        <v>347</v>
+      </c>
       <c r="E265" t="s">
-        <v>9</v>
-      </c>
-      <c r="F265" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -6460,16 +6436,16 @@
         <v>0.70535714299999996</v>
       </c>
       <c r="C266" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="D266" t="s">
+        <v>348</v>
       </c>
       <c r="E266" t="s">
-        <v>11</v>
-      </c>
-      <c r="F266" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>39</v>
       </c>
@@ -6477,16 +6453,16 @@
         <v>0.58928571399999996</v>
       </c>
       <c r="C267" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="D267" t="s">
+        <v>349</v>
       </c>
       <c r="E267" t="s">
-        <v>39</v>
-      </c>
-      <c r="F267" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>24</v>
       </c>
@@ -6494,16 +6470,16 @@
         <v>0.35714285699999998</v>
       </c>
       <c r="C268" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D268" t="s">
+        <v>350</v>
       </c>
       <c r="E268" t="s">
-        <v>24</v>
-      </c>
-      <c r="F268" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>33</v>
       </c>
@@ -6511,16 +6487,16 @@
         <v>0.41071428599999998</v>
       </c>
       <c r="C269" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D269" t="s">
+        <v>351</v>
       </c>
       <c r="E269" t="s">
-        <v>33</v>
-      </c>
-      <c r="F269" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>3</v>
       </c>
@@ -6530,14 +6506,14 @@
       <c r="C270" t="s">
         <v>3</v>
       </c>
+      <c r="D270" t="s">
+        <v>352</v>
+      </c>
       <c r="E270" t="s">
-        <v>3</v>
-      </c>
-      <c r="F270" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -6547,14 +6523,14 @@
       <c r="C271" t="s">
         <v>7</v>
       </c>
+      <c r="D271" t="s">
+        <v>353</v>
+      </c>
       <c r="E271" t="s">
-        <v>7</v>
-      </c>
-      <c r="F271" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -6562,16 +6538,16 @@
         <v>0.48214285699999998</v>
       </c>
       <c r="C272" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D272" t="s">
+        <v>354</v>
       </c>
       <c r="E272" t="s">
-        <v>7</v>
-      </c>
-      <c r="F272" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -6579,16 +6555,16 @@
         <v>0.553571429</v>
       </c>
       <c r="C273" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D273" t="s">
+        <v>355</v>
       </c>
       <c r="E273" t="s">
-        <v>8</v>
-      </c>
-      <c r="F273" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>53</v>
       </c>
@@ -6596,16 +6572,16 @@
         <v>0.741071429</v>
       </c>
       <c r="C274" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="D274" t="s">
+        <v>356</v>
       </c>
       <c r="E274" t="s">
-        <v>50</v>
-      </c>
-      <c r="F274" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>50</v>
       </c>
@@ -6613,16 +6589,16 @@
         <v>0.383928571</v>
       </c>
       <c r="C275" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D275" t="s">
+        <v>357</v>
       </c>
       <c r="E275" t="s">
-        <v>53</v>
-      </c>
-      <c r="F275" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>3</v>
       </c>
@@ -6632,14 +6608,14 @@
       <c r="C276" t="s">
         <v>3</v>
       </c>
+      <c r="D276" t="s">
+        <v>358</v>
+      </c>
       <c r="E276" t="s">
-        <v>3</v>
-      </c>
-      <c r="F276" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>59</v>
       </c>
@@ -6649,14 +6625,14 @@
       <c r="C277" t="s">
         <v>59</v>
       </c>
+      <c r="D277" t="s">
+        <v>359</v>
+      </c>
       <c r="E277" t="s">
-        <v>59</v>
-      </c>
-      <c r="F277" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>51</v>
       </c>
@@ -6666,14 +6642,14 @@
       <c r="C278" t="s">
         <v>51</v>
       </c>
+      <c r="D278" t="s">
+        <v>360</v>
+      </c>
       <c r="E278" t="s">
-        <v>51</v>
-      </c>
-      <c r="F278" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>36</v>
       </c>
@@ -6683,14 +6659,14 @@
       <c r="C279" t="s">
         <v>36</v>
       </c>
+      <c r="D279" t="s">
+        <v>361</v>
+      </c>
       <c r="E279" t="s">
-        <v>36</v>
-      </c>
-      <c r="F279" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>35</v>
       </c>
@@ -6700,14 +6676,14 @@
       <c r="C280" t="s">
         <v>35</v>
       </c>
+      <c r="D280" t="s">
+        <v>362</v>
+      </c>
       <c r="E280" t="s">
-        <v>35</v>
-      </c>
-      <c r="F280" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>33</v>
       </c>
@@ -6717,14 +6693,14 @@
       <c r="C281" t="s">
         <v>33</v>
       </c>
+      <c r="D281" t="s">
+        <v>363</v>
+      </c>
       <c r="E281" t="s">
-        <v>33</v>
-      </c>
-      <c r="F281" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>24</v>
       </c>
@@ -6732,16 +6708,16 @@
         <v>0.41071428599999998</v>
       </c>
       <c r="C282" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="D282" t="s">
+        <v>364</v>
       </c>
       <c r="E282" t="s">
-        <v>3</v>
-      </c>
-      <c r="F282" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>3</v>
       </c>
@@ -6749,16 +6725,16 @@
         <v>0.47321428599999998</v>
       </c>
       <c r="C283" t="s">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="D283" t="s">
+        <v>365</v>
       </c>
       <c r="E283" t="s">
-        <v>24</v>
-      </c>
-      <c r="F283" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -6768,14 +6744,14 @@
       <c r="C284" t="s">
         <v>11</v>
       </c>
+      <c r="D284" t="s">
+        <v>366</v>
+      </c>
       <c r="E284" t="s">
-        <v>11</v>
-      </c>
-      <c r="F284" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>59</v>
       </c>
@@ -6785,14 +6761,14 @@
       <c r="C285" t="s">
         <v>59</v>
       </c>
+      <c r="D285" t="s">
+        <v>367</v>
+      </c>
       <c r="E285" t="s">
-        <v>59</v>
-      </c>
-      <c r="F285" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1</v>
       </c>
@@ -6800,16 +6776,16 @@
         <v>0.51785714299999996</v>
       </c>
       <c r="C286" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D286" t="s">
+        <v>368</v>
       </c>
       <c r="E286" t="s">
-        <v>16</v>
-      </c>
-      <c r="F286" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>16</v>
       </c>
@@ -6817,16 +6793,16 @@
         <v>0.54464285700000004</v>
       </c>
       <c r="C287" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="D287" t="s">
+        <v>369</v>
       </c>
       <c r="E287" t="s">
-        <v>1</v>
-      </c>
-      <c r="F287" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1</v>
       </c>
@@ -6834,16 +6810,16 @@
         <v>0.51785714299999996</v>
       </c>
       <c r="C288" t="s">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="D288" t="s">
+        <v>370</v>
       </c>
       <c r="E288" t="s">
-        <v>59</v>
-      </c>
-      <c r="F288" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>59</v>
       </c>
@@ -6851,16 +6827,16 @@
         <v>0.72321428600000004</v>
       </c>
       <c r="C289" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>371</v>
       </c>
       <c r="E289" t="s">
-        <v>1</v>
-      </c>
-      <c r="F289" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -6868,16 +6844,16 @@
         <v>0.48214285699999998</v>
       </c>
       <c r="C290" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="D290" t="s">
+        <v>372</v>
       </c>
       <c r="E290" t="s">
-        <v>8</v>
-      </c>
-      <c r="F290" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>15</v>
       </c>
@@ -6885,16 +6861,16 @@
         <v>0.428571429</v>
       </c>
       <c r="C291" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D291" t="s">
+        <v>373</v>
       </c>
       <c r="E291" t="s">
-        <v>15</v>
-      </c>
-      <c r="F291" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>59</v>
       </c>
@@ -6904,14 +6880,14 @@
       <c r="C292" t="s">
         <v>24</v>
       </c>
+      <c r="D292" t="s">
+        <v>374</v>
+      </c>
       <c r="E292" t="s">
-        <v>24</v>
-      </c>
-      <c r="F292" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>24</v>
       </c>
@@ -6921,14 +6897,14 @@
       <c r="C293" t="s">
         <v>59</v>
       </c>
+      <c r="D293" t="s">
+        <v>375</v>
+      </c>
       <c r="E293" t="s">
-        <v>59</v>
-      </c>
-      <c r="F293" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>41</v>
       </c>
@@ -6936,16 +6912,16 @@
         <v>0.321428571</v>
       </c>
       <c r="C294" t="s">
-        <v>41</v>
+        <v>67</v>
+      </c>
+      <c r="D294" t="s">
+        <v>376</v>
       </c>
       <c r="E294" t="s">
-        <v>67</v>
-      </c>
-      <c r="F294" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>67</v>
       </c>
@@ -6953,16 +6929,16 @@
         <v>0.53571428600000004</v>
       </c>
       <c r="C295" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="D295" t="s">
+        <v>377</v>
       </c>
       <c r="E295" t="s">
-        <v>41</v>
-      </c>
-      <c r="F295" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>58</v>
       </c>
@@ -6972,14 +6948,14 @@
       <c r="C296" t="s">
         <v>58</v>
       </c>
+      <c r="D296" t="s">
+        <v>378</v>
+      </c>
       <c r="E296" t="s">
-        <v>58</v>
-      </c>
-      <c r="F296" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1</v>
       </c>
@@ -6989,14 +6965,14 @@
       <c r="C297" t="s">
         <v>1</v>
       </c>
+      <c r="D297" t="s">
+        <v>379</v>
+      </c>
       <c r="E297" t="s">
-        <v>1</v>
-      </c>
-      <c r="F297" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>9</v>
       </c>
@@ -7006,14 +6982,14 @@
       <c r="C298" t="s">
         <v>8</v>
       </c>
+      <c r="D298" t="s">
+        <v>380</v>
+      </c>
       <c r="E298" t="s">
-        <v>8</v>
-      </c>
-      <c r="F298" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -7023,14 +6999,14 @@
       <c r="C299" t="s">
         <v>9</v>
       </c>
+      <c r="D299" t="s">
+        <v>381</v>
+      </c>
       <c r="E299" t="s">
-        <v>9</v>
-      </c>
-      <c r="F299" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>74</v>
       </c>
@@ -7040,14 +7016,14 @@
       <c r="C300" t="s">
         <v>10</v>
       </c>
+      <c r="D300" t="s">
+        <v>382</v>
+      </c>
       <c r="E300" t="s">
-        <v>10</v>
-      </c>
-      <c r="F300" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>75</v>
       </c>
@@ -7057,14 +7033,14 @@
       <c r="C301" t="s">
         <v>41</v>
       </c>
+      <c r="D301" t="s">
+        <v>383</v>
+      </c>
       <c r="E301" t="s">
-        <v>41</v>
-      </c>
-      <c r="F301" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>76</v>
       </c>
@@ -7072,16 +7048,16 @@
         <v>0.29464285699999998</v>
       </c>
       <c r="C302" t="s">
-        <v>76</v>
+        <v>16</v>
+      </c>
+      <c r="D302" t="s">
+        <v>384</v>
       </c>
       <c r="E302" t="s">
-        <v>16</v>
-      </c>
-      <c r="F302" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>16</v>
       </c>
@@ -7089,16 +7065,16 @@
         <v>0.54464285700000004</v>
       </c>
       <c r="C303" t="s">
-        <v>16</v>
+        <v>76</v>
+      </c>
+      <c r="D303" t="s">
+        <v>385</v>
       </c>
       <c r="E303" t="s">
-        <v>76</v>
-      </c>
-      <c r="F303" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>16</v>
       </c>
@@ -7108,14 +7084,14 @@
       <c r="C304" t="s">
         <v>16</v>
       </c>
+      <c r="D304" t="s">
+        <v>386</v>
+      </c>
       <c r="E304" t="s">
-        <v>16</v>
-      </c>
-      <c r="F304" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>71</v>
       </c>
@@ -7125,14 +7101,14 @@
       <c r="C305" t="s">
         <v>71</v>
       </c>
+      <c r="D305" t="s">
+        <v>387</v>
+      </c>
       <c r="E305" t="s">
-        <v>71</v>
-      </c>
-      <c r="F305" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -7140,16 +7116,16 @@
         <v>0.553571429</v>
       </c>
       <c r="C306" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="D306" t="s">
+        <v>388</v>
       </c>
       <c r="E306" t="s">
-        <v>20</v>
-      </c>
-      <c r="F306" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -7157,16 +7133,16 @@
         <v>0.366071429</v>
       </c>
       <c r="C307" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="D307" t="s">
+        <v>389</v>
       </c>
       <c r="E307" t="s">
-        <v>7</v>
-      </c>
-      <c r="F307" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>33</v>
       </c>
@@ -7176,14 +7152,14 @@
       <c r="C308" t="s">
         <v>33</v>
       </c>
+      <c r="D308" t="s">
+        <v>390</v>
+      </c>
       <c r="E308" t="s">
-        <v>33</v>
-      </c>
-      <c r="F308" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -7193,14 +7169,14 @@
       <c r="C309" t="s">
         <v>18</v>
       </c>
+      <c r="D309" t="s">
+        <v>391</v>
+      </c>
       <c r="E309" t="s">
-        <v>18</v>
-      </c>
-      <c r="F309" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>18</v>
       </c>
@@ -7210,14 +7186,14 @@
       <c r="C310" t="s">
         <v>7</v>
       </c>
+      <c r="D310" t="s">
+        <v>392</v>
+      </c>
       <c r="E310" t="s">
-        <v>7</v>
-      </c>
-      <c r="F310" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>77</v>
       </c>
@@ -7227,14 +7203,14 @@
       <c r="C311" t="s">
         <v>77</v>
       </c>
+      <c r="D311" t="s">
+        <v>393</v>
+      </c>
       <c r="E311" t="s">
-        <v>77</v>
-      </c>
-      <c r="F311" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>12</v>
       </c>
@@ -7242,16 +7218,16 @@
         <v>0.616071429</v>
       </c>
       <c r="C312" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D312" t="s">
+        <v>394</v>
       </c>
       <c r="E312" t="s">
-        <v>12</v>
-      </c>
-      <c r="F312" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>24</v>
       </c>
@@ -7259,16 +7235,16 @@
         <v>0.41071428599999998</v>
       </c>
       <c r="C313" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="D313" t="s">
+        <v>395</v>
       </c>
       <c r="E313" t="s">
-        <v>24</v>
-      </c>
-      <c r="F313" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -7278,14 +7254,14 @@
       <c r="C314" t="s">
         <v>12</v>
       </c>
+      <c r="D314" t="s">
+        <v>396</v>
+      </c>
       <c r="E314" t="s">
-        <v>12</v>
-      </c>
-      <c r="F314" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -7295,14 +7271,14 @@
       <c r="C315" t="s">
         <v>17</v>
       </c>
+      <c r="D315" t="s">
+        <v>397</v>
+      </c>
       <c r="E315" t="s">
-        <v>17</v>
-      </c>
-      <c r="F315" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>15</v>
       </c>
@@ -7312,14 +7288,14 @@
       <c r="C316" t="s">
         <v>15</v>
       </c>
+      <c r="D316" t="s">
+        <v>398</v>
+      </c>
       <c r="E316" t="s">
-        <v>15</v>
-      </c>
-      <c r="F316" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>41</v>
       </c>
@@ -7329,14 +7305,14 @@
       <c r="C317" t="s">
         <v>41</v>
       </c>
+      <c r="D317" t="s">
+        <v>399</v>
+      </c>
       <c r="E317" t="s">
-        <v>41</v>
-      </c>
-      <c r="F317" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>43</v>
       </c>
@@ -7346,14 +7322,14 @@
       <c r="C318" t="s">
         <v>43</v>
       </c>
+      <c r="D318" t="s">
+        <v>400</v>
+      </c>
       <c r="E318" t="s">
-        <v>43</v>
-      </c>
-      <c r="F318" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>13</v>
       </c>
@@ -7363,14 +7339,14 @@
       <c r="C319" t="s">
         <v>13</v>
       </c>
+      <c r="D319" t="s">
+        <v>401</v>
+      </c>
       <c r="E319" t="s">
-        <v>13</v>
-      </c>
-      <c r="F319" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>43</v>
       </c>
@@ -7380,14 +7356,14 @@
       <c r="C320" t="s">
         <v>17</v>
       </c>
+      <c r="D320" t="s">
+        <v>402</v>
+      </c>
       <c r="E320" t="s">
-        <v>17</v>
-      </c>
-      <c r="F320" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>17</v>
       </c>
@@ -7397,14 +7373,14 @@
       <c r="C321" t="s">
         <v>43</v>
       </c>
+      <c r="D321" t="s">
+        <v>403</v>
+      </c>
       <c r="E321" t="s">
-        <v>43</v>
-      </c>
-      <c r="F321" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>2</v>
       </c>
@@ -7412,16 +7388,16 @@
         <v>0.6875</v>
       </c>
       <c r="C322" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="D322" t="s">
+        <v>404</v>
       </c>
       <c r="E322" t="s">
-        <v>2</v>
-      </c>
-      <c r="F322" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>21</v>
       </c>
@@ -7429,16 +7405,16 @@
         <v>0.79464285700000004</v>
       </c>
       <c r="C323" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="D323" t="s">
+        <v>405</v>
       </c>
       <c r="E323" t="s">
-        <v>21</v>
-      </c>
-      <c r="F323" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>9</v>
       </c>
@@ -7446,16 +7422,16 @@
         <v>0.571428571</v>
       </c>
       <c r="C324" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D324" t="s">
+        <v>406</v>
       </c>
       <c r="E324" t="s">
-        <v>9</v>
-      </c>
-      <c r="F324" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>14</v>
       </c>
@@ -7463,16 +7439,16 @@
         <v>0.64285714299999996</v>
       </c>
       <c r="C325" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="D325" t="s">
+        <v>407</v>
       </c>
       <c r="E325" t="s">
-        <v>14</v>
-      </c>
-      <c r="F325" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -7482,14 +7458,14 @@
       <c r="C326" t="s">
         <v>14</v>
       </c>
+      <c r="D326" t="s">
+        <v>408</v>
+      </c>
       <c r="E326" t="s">
-        <v>14</v>
-      </c>
-      <c r="F326" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1</v>
       </c>
@@ -7499,14 +7475,14 @@
       <c r="C327" t="s">
         <v>1</v>
       </c>
+      <c r="D327" t="s">
+        <v>409</v>
+      </c>
       <c r="E327" t="s">
-        <v>1</v>
-      </c>
-      <c r="F327" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>43</v>
       </c>
@@ -7516,14 +7492,14 @@
       <c r="C328" t="s">
         <v>43</v>
       </c>
+      <c r="D328" t="s">
+        <v>410</v>
+      </c>
       <c r="E328" t="s">
-        <v>43</v>
-      </c>
-      <c r="F328" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>23</v>
       </c>
@@ -7533,14 +7509,14 @@
       <c r="C329" t="s">
         <v>23</v>
       </c>
+      <c r="D329" t="s">
+        <v>411</v>
+      </c>
       <c r="E329" t="s">
-        <v>23</v>
-      </c>
-      <c r="F329" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>38</v>
       </c>
@@ -7548,16 +7524,16 @@
         <v>0.508928571</v>
       </c>
       <c r="C330" t="s">
-        <v>78</v>
+        <v>38</v>
+      </c>
+      <c r="D330" t="s">
+        <v>412</v>
       </c>
       <c r="E330" t="s">
-        <v>38</v>
-      </c>
-      <c r="F330" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>78</v>
       </c>
@@ -7565,16 +7541,16 @@
         <v>0.1875</v>
       </c>
       <c r="C331" t="s">
-        <v>38</v>
+        <v>78</v>
+      </c>
+      <c r="D331" t="s">
+        <v>413</v>
       </c>
       <c r="E331" t="s">
-        <v>78</v>
-      </c>
-      <c r="F331" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -7582,16 +7558,16 @@
         <v>0.23214285700000001</v>
       </c>
       <c r="C332" t="s">
-        <v>34</v>
+        <v>79</v>
+      </c>
+      <c r="D332" t="s">
+        <v>414</v>
       </c>
       <c r="E332" t="s">
-        <v>79</v>
-      </c>
-      <c r="F332" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>34</v>
       </c>
@@ -7599,16 +7575,16 @@
         <v>0.446428571</v>
       </c>
       <c r="C333" t="s">
-        <v>79</v>
+        <v>34</v>
+      </c>
+      <c r="D333" t="s">
+        <v>415</v>
       </c>
       <c r="E333" t="s">
-        <v>34</v>
-      </c>
-      <c r="F333" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>80</v>
       </c>
@@ -7616,16 +7592,16 @@
         <v>0.52678571399999996</v>
       </c>
       <c r="C334" t="s">
-        <v>80</v>
+        <v>36</v>
+      </c>
+      <c r="D334" t="s">
+        <v>416</v>
       </c>
       <c r="E334" t="s">
-        <v>36</v>
-      </c>
-      <c r="F334" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>36</v>
       </c>
@@ -7633,16 +7609,16 @@
         <v>0.3125</v>
       </c>
       <c r="C335" t="s">
-        <v>36</v>
+        <v>80</v>
+      </c>
+      <c r="D335" t="s">
+        <v>417</v>
       </c>
       <c r="E335" t="s">
-        <v>80</v>
-      </c>
-      <c r="F335" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>18</v>
       </c>
@@ -7650,16 +7626,16 @@
         <v>0.65178571399999996</v>
       </c>
       <c r="C336" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="D336" t="s">
+        <v>418</v>
       </c>
       <c r="E336" t="s">
-        <v>18</v>
-      </c>
-      <c r="F336" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>25</v>
       </c>
@@ -7667,16 +7643,16 @@
         <v>0.60714285700000004</v>
       </c>
       <c r="C337" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="D337" t="s">
+        <v>419</v>
       </c>
       <c r="E337" t="s">
-        <v>25</v>
-      </c>
-      <c r="F337" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>17</v>
       </c>
@@ -7684,16 +7660,16 @@
         <v>0.491071429</v>
       </c>
       <c r="C338" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="D338" t="s">
+        <v>420</v>
       </c>
       <c r="E338" t="s">
-        <v>17</v>
-      </c>
-      <c r="F338" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>37</v>
       </c>
@@ -7701,16 +7677,16 @@
         <v>0.41964285699999998</v>
       </c>
       <c r="C339" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="D339" t="s">
+        <v>421</v>
       </c>
       <c r="E339" t="s">
-        <v>37</v>
-      </c>
-      <c r="F339" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>36</v>
       </c>
@@ -7718,16 +7694,16 @@
         <v>0.52678571399999996</v>
       </c>
       <c r="C340" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="D340" t="s">
+        <v>422</v>
       </c>
       <c r="E340" t="s">
-        <v>36</v>
-      </c>
-      <c r="F340" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -7735,16 +7711,16 @@
         <v>0.58928571399999996</v>
       </c>
       <c r="C341" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="D341" t="s">
+        <v>423</v>
       </c>
       <c r="E341" t="s">
-        <v>11</v>
-      </c>
-      <c r="F341" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>8</v>
       </c>
@@ -7754,14 +7730,14 @@
       <c r="C342" t="s">
         <v>8</v>
       </c>
+      <c r="D342" t="s">
+        <v>424</v>
+      </c>
       <c r="E342" t="s">
-        <v>8</v>
-      </c>
-      <c r="F342" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>42</v>
       </c>
@@ -7771,14 +7747,14 @@
       <c r="C343" t="s">
         <v>42</v>
       </c>
+      <c r="D343" t="s">
+        <v>425</v>
+      </c>
       <c r="E343" t="s">
-        <v>42</v>
-      </c>
-      <c r="F343" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>39</v>
       </c>
@@ -7788,14 +7764,14 @@
       <c r="C344" t="s">
         <v>28</v>
       </c>
+      <c r="D344" t="s">
+        <v>426</v>
+      </c>
       <c r="E344" t="s">
-        <v>28</v>
-      </c>
-      <c r="F344" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>28</v>
       </c>
@@ -7805,14 +7781,14 @@
       <c r="C345" t="s">
         <v>39</v>
       </c>
+      <c r="D345" t="s">
+        <v>427</v>
+      </c>
       <c r="E345" t="s">
-        <v>39</v>
-      </c>
-      <c r="F345" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>45</v>
       </c>
@@ -7822,14 +7798,14 @@
       <c r="C346" t="s">
         <v>7</v>
       </c>
+      <c r="D346" t="s">
+        <v>428</v>
+      </c>
       <c r="E346" t="s">
-        <v>7</v>
-      </c>
-      <c r="F346" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>7</v>
       </c>
@@ -7839,14 +7815,14 @@
       <c r="C347" t="s">
         <v>45</v>
       </c>
+      <c r="D347" t="s">
+        <v>429</v>
+      </c>
       <c r="E347" t="s">
-        <v>45</v>
-      </c>
-      <c r="F347" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>31</v>
       </c>
@@ -7856,14 +7832,14 @@
       <c r="C348" t="s">
         <v>9</v>
       </c>
+      <c r="D348" t="s">
+        <v>430</v>
+      </c>
       <c r="E348" t="s">
-        <v>9</v>
-      </c>
-      <c r="F348" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -7873,14 +7849,14 @@
       <c r="C349" t="s">
         <v>31</v>
       </c>
+      <c r="D349" t="s">
+        <v>431</v>
+      </c>
       <c r="E349" t="s">
-        <v>31</v>
-      </c>
-      <c r="F349" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>34</v>
       </c>
@@ -7890,14 +7866,14 @@
       <c r="C350" t="s">
         <v>34</v>
       </c>
+      <c r="D350" t="s">
+        <v>432</v>
+      </c>
       <c r="E350" t="s">
-        <v>34</v>
-      </c>
-      <c r="F350" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>67</v>
       </c>
@@ -7907,14 +7883,14 @@
       <c r="C351" t="s">
         <v>67</v>
       </c>
+      <c r="D351" t="s">
+        <v>433</v>
+      </c>
       <c r="E351" t="s">
-        <v>67</v>
-      </c>
-      <c r="F351" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>20</v>
       </c>
@@ -7924,14 +7900,14 @@
       <c r="C352" t="s">
         <v>20</v>
       </c>
+      <c r="D352" t="s">
+        <v>434</v>
+      </c>
       <c r="E352" t="s">
-        <v>20</v>
-      </c>
-      <c r="F352" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>71</v>
       </c>
@@ -7941,14 +7917,14 @@
       <c r="C353" t="s">
         <v>71</v>
       </c>
+      <c r="D353" t="s">
+        <v>435</v>
+      </c>
       <c r="E353" t="s">
-        <v>71</v>
-      </c>
-      <c r="F353" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>21</v>
       </c>
@@ -7958,14 +7934,14 @@
       <c r="C354" t="s">
         <v>12</v>
       </c>
+      <c r="D354" t="s">
+        <v>436</v>
+      </c>
       <c r="E354" t="s">
-        <v>12</v>
-      </c>
-      <c r="F354" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>12</v>
       </c>
@@ -7975,14 +7951,14 @@
       <c r="C355" t="s">
         <v>21</v>
       </c>
+      <c r="D355" t="s">
+        <v>437</v>
+      </c>
       <c r="E355" t="s">
-        <v>21</v>
-      </c>
-      <c r="F355" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>26</v>
       </c>
@@ -7992,14 +7968,14 @@
       <c r="C356" t="s">
         <v>6</v>
       </c>
+      <c r="D356" t="s">
+        <v>438</v>
+      </c>
       <c r="E356" t="s">
-        <v>6</v>
-      </c>
-      <c r="F356" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>6</v>
       </c>
@@ -8009,14 +7985,14 @@
       <c r="C357" t="s">
         <v>26</v>
       </c>
+      <c r="D357" t="s">
+        <v>439</v>
+      </c>
       <c r="E357" t="s">
-        <v>26</v>
-      </c>
-      <c r="F357" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>3</v>
       </c>
@@ -8026,14 +8002,14 @@
       <c r="C358" t="s">
         <v>60</v>
       </c>
+      <c r="D358" t="s">
+        <v>440</v>
+      </c>
       <c r="E358" t="s">
-        <v>60</v>
-      </c>
-      <c r="F358" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>60</v>
       </c>
@@ -8043,14 +8019,14 @@
       <c r="C359" t="s">
         <v>3</v>
       </c>
+      <c r="D359" t="s">
+        <v>441</v>
+      </c>
       <c r="E359" t="s">
-        <v>3</v>
-      </c>
-      <c r="F359" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>20</v>
       </c>
@@ -8060,14 +8036,14 @@
       <c r="C360" t="s">
         <v>39</v>
       </c>
+      <c r="D360" t="s">
+        <v>442</v>
+      </c>
       <c r="E360" t="s">
-        <v>39</v>
-      </c>
-      <c r="F360" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>39</v>
       </c>
@@ -8077,14 +8053,14 @@
       <c r="C361" t="s">
         <v>20</v>
       </c>
+      <c r="D361" t="s">
+        <v>443</v>
+      </c>
       <c r="E361" t="s">
-        <v>20</v>
-      </c>
-      <c r="F361" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>77</v>
       </c>
@@ -8094,14 +8070,14 @@
       <c r="C362" t="s">
         <v>18</v>
       </c>
+      <c r="D362" t="s">
+        <v>444</v>
+      </c>
       <c r="E362" t="s">
-        <v>18</v>
-      </c>
-      <c r="F362" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>18</v>
       </c>
@@ -8111,14 +8087,14 @@
       <c r="C363" t="s">
         <v>77</v>
       </c>
+      <c r="D363" t="s">
+        <v>445</v>
+      </c>
       <c r="E363" t="s">
-        <v>77</v>
-      </c>
-      <c r="F363" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>50</v>
       </c>
@@ -8128,14 +8104,14 @@
       <c r="C364" t="s">
         <v>50</v>
       </c>
+      <c r="D364" t="s">
+        <v>446</v>
+      </c>
       <c r="E364" t="s">
-        <v>50</v>
-      </c>
-      <c r="F364" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>50</v>
       </c>
@@ -8145,14 +8121,14 @@
       <c r="C365" t="s">
         <v>50</v>
       </c>
+      <c r="D365" t="s">
+        <v>447</v>
+      </c>
       <c r="E365" t="s">
-        <v>50</v>
-      </c>
-      <c r="F365" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>7</v>
       </c>
@@ -8162,14 +8138,14 @@
       <c r="C366" t="s">
         <v>7</v>
       </c>
+      <c r="D366" t="s">
+        <v>448</v>
+      </c>
       <c r="E366" t="s">
-        <v>7</v>
-      </c>
-      <c r="F366" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>13</v>
       </c>
@@ -8179,14 +8155,14 @@
       <c r="C367" t="s">
         <v>13</v>
       </c>
+      <c r="D367" t="s">
+        <v>449</v>
+      </c>
       <c r="E367" t="s">
-        <v>13</v>
-      </c>
-      <c r="F367" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>81</v>
       </c>
@@ -8196,14 +8172,14 @@
       <c r="C368" t="s">
         <v>35</v>
       </c>
+      <c r="D368" t="s">
+        <v>450</v>
+      </c>
       <c r="E368" t="s">
-        <v>35</v>
-      </c>
-      <c r="F368" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>35</v>
       </c>
@@ -8213,14 +8189,14 @@
       <c r="C369" t="s">
         <v>81</v>
       </c>
+      <c r="D369" t="s">
+        <v>451</v>
+      </c>
       <c r="E369" t="s">
-        <v>81</v>
-      </c>
-      <c r="F369" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>80</v>
       </c>
@@ -8230,14 +8206,14 @@
       <c r="C370" t="s">
         <v>61</v>
       </c>
+      <c r="D370" t="s">
+        <v>452</v>
+      </c>
       <c r="E370" t="s">
-        <v>61</v>
-      </c>
-      <c r="F370" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>61</v>
       </c>
@@ -8247,14 +8223,14 @@
       <c r="C371" t="s">
         <v>80</v>
       </c>
+      <c r="D371" t="s">
+        <v>453</v>
+      </c>
       <c r="E371" t="s">
-        <v>80</v>
-      </c>
-      <c r="F371" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>31</v>
       </c>
@@ -8264,14 +8240,14 @@
       <c r="C372" t="s">
         <v>34</v>
       </c>
+      <c r="D372" t="s">
+        <v>454</v>
+      </c>
       <c r="E372" t="s">
-        <v>34</v>
-      </c>
-      <c r="F372" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>34</v>
       </c>
@@ -8281,14 +8257,14 @@
       <c r="C373" t="s">
         <v>31</v>
       </c>
+      <c r="D373" t="s">
+        <v>455</v>
+      </c>
       <c r="E373" t="s">
-        <v>31</v>
-      </c>
-      <c r="F373" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>22</v>
       </c>
@@ -8298,14 +8274,14 @@
       <c r="C374" t="s">
         <v>9</v>
       </c>
+      <c r="D374" t="s">
+        <v>456</v>
+      </c>
       <c r="E374" t="s">
-        <v>9</v>
-      </c>
-      <c r="F374" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -8315,14 +8291,14 @@
       <c r="C375" t="s">
         <v>22</v>
       </c>
+      <c r="D375" t="s">
+        <v>457</v>
+      </c>
       <c r="E375" t="s">
-        <v>22</v>
-      </c>
-      <c r="F375" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>9</v>
       </c>
@@ -8332,14 +8308,14 @@
       <c r="C376" t="s">
         <v>7</v>
       </c>
+      <c r="D376" t="s">
+        <v>458</v>
+      </c>
       <c r="E376" t="s">
-        <v>7</v>
-      </c>
-      <c r="F376" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>7</v>
       </c>
@@ -8349,14 +8325,14 @@
       <c r="C377" t="s">
         <v>9</v>
       </c>
+      <c r="D377" t="s">
+        <v>459</v>
+      </c>
       <c r="E377" t="s">
-        <v>9</v>
-      </c>
-      <c r="F377" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>43</v>
       </c>
@@ -8366,14 +8342,14 @@
       <c r="C378" t="s">
         <v>43</v>
       </c>
+      <c r="D378" t="s">
+        <v>460</v>
+      </c>
       <c r="E378" t="s">
-        <v>43</v>
-      </c>
-      <c r="F378" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>35</v>
       </c>
@@ -8383,14 +8359,14 @@
       <c r="C379" t="s">
         <v>35</v>
       </c>
+      <c r="D379" t="s">
+        <v>461</v>
+      </c>
       <c r="E379" t="s">
-        <v>35</v>
-      </c>
-      <c r="F379" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>11</v>
       </c>
@@ -8400,14 +8376,14 @@
       <c r="C380" t="s">
         <v>11</v>
       </c>
+      <c r="D380" t="s">
+        <v>462</v>
+      </c>
       <c r="E380" t="s">
-        <v>11</v>
-      </c>
-      <c r="F380" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>41</v>
       </c>
@@ -8417,14 +8393,14 @@
       <c r="C381" t="s">
         <v>41</v>
       </c>
+      <c r="D381" t="s">
+        <v>463</v>
+      </c>
       <c r="E381" t="s">
-        <v>41</v>
-      </c>
-      <c r="F381" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1</v>
       </c>
@@ -8434,14 +8410,14 @@
       <c r="C382" t="s">
         <v>1</v>
       </c>
+      <c r="D382" t="s">
+        <v>464</v>
+      </c>
       <c r="E382" t="s">
-        <v>1</v>
-      </c>
-      <c r="F382" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>38</v>
       </c>
@@ -8451,14 +8427,14 @@
       <c r="C383" t="s">
         <v>38</v>
       </c>
+      <c r="D383" t="s">
+        <v>465</v>
+      </c>
       <c r="E383" t="s">
-        <v>38</v>
-      </c>
-      <c r="F383" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>8</v>
       </c>
@@ -8468,14 +8444,14 @@
       <c r="C384" t="s">
         <v>3</v>
       </c>
+      <c r="D384" t="s">
+        <v>466</v>
+      </c>
       <c r="E384" t="s">
-        <v>3</v>
-      </c>
-      <c r="F384" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>3</v>
       </c>
@@ -8485,14 +8461,14 @@
       <c r="C385" t="s">
         <v>8</v>
       </c>
+      <c r="D385" t="s">
+        <v>467</v>
+      </c>
       <c r="E385" t="s">
-        <v>8</v>
-      </c>
-      <c r="F385" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>9</v>
       </c>
@@ -8502,14 +8478,14 @@
       <c r="C386" t="s">
         <v>9</v>
       </c>
+      <c r="D386" t="s">
+        <v>468</v>
+      </c>
       <c r="E386" t="s">
-        <v>9</v>
-      </c>
-      <c r="F386" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>45</v>
       </c>
@@ -8519,14 +8495,14 @@
       <c r="C387" t="s">
         <v>45</v>
       </c>
+      <c r="D387" t="s">
+        <v>469</v>
+      </c>
       <c r="E387" t="s">
-        <v>45</v>
-      </c>
-      <c r="F387" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>39</v>
       </c>
@@ -8536,14 +8512,14 @@
       <c r="C388" t="s">
         <v>39</v>
       </c>
+      <c r="D388" t="s">
+        <v>470</v>
+      </c>
       <c r="E388" t="s">
-        <v>39</v>
-      </c>
-      <c r="F388" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>26</v>
       </c>
@@ -8553,14 +8529,14 @@
       <c r="C389" t="s">
         <v>26</v>
       </c>
+      <c r="D389" t="s">
+        <v>471</v>
+      </c>
       <c r="E389" t="s">
-        <v>26</v>
-      </c>
-      <c r="F389" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>17</v>
       </c>
@@ -8570,14 +8546,14 @@
       <c r="C390" t="s">
         <v>17</v>
       </c>
+      <c r="D390" t="s">
+        <v>472</v>
+      </c>
       <c r="E390" t="s">
-        <v>17</v>
-      </c>
-      <c r="F390" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>39</v>
       </c>
@@ -8587,14 +8563,14 @@
       <c r="C391" t="s">
         <v>39</v>
       </c>
+      <c r="D391" t="s">
+        <v>473</v>
+      </c>
       <c r="E391" t="s">
-        <v>39</v>
-      </c>
-      <c r="F391" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>8</v>
       </c>
@@ -8604,14 +8580,14 @@
       <c r="C392" t="s">
         <v>8</v>
       </c>
+      <c r="D392" t="s">
+        <v>474</v>
+      </c>
       <c r="E392" t="s">
-        <v>8</v>
-      </c>
-      <c r="F392" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1</v>
       </c>
@@ -8621,14 +8597,14 @@
       <c r="C393" t="s">
         <v>1</v>
       </c>
+      <c r="D393" t="s">
+        <v>475</v>
+      </c>
       <c r="E393" t="s">
-        <v>1</v>
-      </c>
-      <c r="F393" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>39</v>
       </c>
@@ -8638,14 +8614,14 @@
       <c r="C394" t="s">
         <v>39</v>
       </c>
+      <c r="D394" t="s">
+        <v>476</v>
+      </c>
       <c r="E394" t="s">
-        <v>39</v>
-      </c>
-      <c r="F394" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>18</v>
       </c>
@@ -8655,14 +8631,14 @@
       <c r="C395" t="s">
         <v>18</v>
       </c>
+      <c r="D395" t="s">
+        <v>477</v>
+      </c>
       <c r="E395" t="s">
-        <v>18</v>
-      </c>
-      <c r="F395" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>26</v>
       </c>
@@ -8672,14 +8648,14 @@
       <c r="C396" t="s">
         <v>26</v>
       </c>
+      <c r="D396" t="s">
+        <v>478</v>
+      </c>
       <c r="E396" t="s">
-        <v>26</v>
-      </c>
-      <c r="F396" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>8</v>
       </c>
@@ -8689,14 +8665,14 @@
       <c r="C397" t="s">
         <v>8</v>
       </c>
+      <c r="D397" t="s">
+        <v>479</v>
+      </c>
       <c r="E397" t="s">
-        <v>8</v>
-      </c>
-      <c r="F397" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>22</v>
       </c>
@@ -8706,14 +8682,14 @@
       <c r="C398" t="s">
         <v>22</v>
       </c>
+      <c r="D398" t="s">
+        <v>480</v>
+      </c>
       <c r="E398" t="s">
-        <v>22</v>
-      </c>
-      <c r="F398" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1</v>
       </c>
@@ -8723,14 +8699,14 @@
       <c r="C399" t="s">
         <v>1</v>
       </c>
+      <c r="D399" t="s">
+        <v>481</v>
+      </c>
       <c r="E399" t="s">
-        <v>1</v>
-      </c>
-      <c r="F399" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>82</v>
       </c>
@@ -8740,10 +8716,10 @@
       <c r="C400" t="s">
         <v>82</v>
       </c>
+      <c r="D400" t="s">
+        <v>482</v>
+      </c>
       <c r="E400" t="s">
-        <v>82</v>
-      </c>
-      <c r="F400" t="s">
         <v>482</v>
       </c>
     </row>
